--- a/biology/Botanique/Tropidieae/Tropidieae.xlsx
+++ b/biology/Botanique/Tropidieae/Tropidieae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Tropidieae sont une tribu de plantes de la famille des Orchidaceae (Orchidées) et de la sous-famille des Epidendroideae.
-Le genre type est Tropidia[1].
+Le genre type est Tropidia.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tribu a une distribution pantropicale : le genre Corymborkis est principalement distribué en Amérique, mais a également deux espèces en Afrique (C. corymbis, C. minima) et une en Asie (C. veratrifolia)[2], tandis que l'aire de répartition du genre Tropidia s'étend principalement en Asie du Sud-Est, avec quelques espèces trouvées en Australie et dans les îles du Pacifique Sud ; une seule espèce (T. polystachya) se trouve en Amérique du Nord et en Amérique centrale[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tribu a une distribution pantropicale : le genre Corymborkis est principalement distribué en Amérique, mais a également deux espèces en Afrique (C. corymbis, C. minima) et une en Asie (C. veratrifolia), tandis que l'aire de répartition du genre Tropidia s'étend principalement en Asie du Sud-Est, avec quelques espèces trouvées en Australie et dans les îles du Pacifique Sud ; une seule espèce (T. polystachya) se trouve en Amérique du Nord et en Amérique centrale. 
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Corymborkis
 Tropidia</t>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dressler (1983) Telopia, 2, 422.</t>
         </is>
